--- a/WebPortal Automation Task Update.xlsx
+++ b/WebPortal Automation Task Update.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ganesh M\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ganesh M\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alagammai M S" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -140,16 +140,32 @@
   <si>
     <t>14CSA19</t>
   </si>
+  <si>
+    <t>02.01.2018</t>
+  </si>
+  <si>
+    <t>10.45 AM to 4.00PM</t>
+  </si>
+  <si>
+    <t>10.00 AM to 4.00 PM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -200,8 +216,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +258,20 @@
         <bgColor rgb="FFB2B2B2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -392,82 +426,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD87E073-8EB3-4519-BF00-566F6565F111}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,14 +986,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -960,12 +1016,12 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -988,7 +1044,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1000,7 +1056,7 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1028,23 +1084,23 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1067,16 +1123,18 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1098,23 +1156,23 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1130,14 +1188,14 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1152,23 +1210,23 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1191,16 +1249,18 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1222,23 +1282,23 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1261,16 +1321,18 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1292,23 +1354,23 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1331,16 +1393,18 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1362,15 +1426,15 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1392,15 +1456,15 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1422,23 +1486,23 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1461,14 +1525,14 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="11"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1490,23 +1554,23 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1529,16 +1593,18 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1560,23 +1626,23 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1599,16 +1665,18 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1630,23 +1698,23 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1669,14 +1737,14 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="11"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1698,23 +1766,23 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1737,14 +1805,14 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="11"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1766,15 +1834,15 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="24" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="11"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1796,15 +1864,15 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="11"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1826,15 +1894,15 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="11"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1856,23 +1924,23 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1895,14 +1963,14 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="11"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1924,23 +1992,23 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1963,14 +2031,14 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="17" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="11"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1992,23 +2060,23 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2031,16 +2099,18 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2062,12 +2132,14 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2078,19 +2150,16 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2101,19 +2170,16 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2124,19 +2190,26 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="A38" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2147,15 +2220,10 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2170,15 +2238,10 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2193,15 +2256,10 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2216,15 +2274,10 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2239,15 +2292,10 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2262,15 +2310,10 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2285,11 +2328,6 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -2313,11 +2351,6 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -28975,13 +29008,67 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A998" s="2"/>
+      <c r="B998" s="2"/>
+      <c r="C998" s="2"/>
+      <c r="D998" s="2"/>
+      <c r="E998" s="2"/>
+      <c r="F998" s="2"/>
+    </row>
+    <row r="999" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A999" s="2"/>
+      <c r="B999" s="2"/>
+      <c r="C999" s="2"/>
+      <c r="D999" s="2"/>
+      <c r="E999" s="2"/>
+      <c r="F999" s="2"/>
+    </row>
+    <row r="1000" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="2"/>
+      <c r="B1000" s="2"/>
+      <c r="C1000" s="2"/>
+      <c r="D1000" s="2"/>
+      <c r="E1000" s="2"/>
+      <c r="F1000" s="2"/>
+    </row>
     <row r="1001" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="D14:D15"/>
@@ -28991,15 +29078,6 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -29007,32 +29085,9 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29042,68 +29097,108 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="23">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="21">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="20">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="19">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="18">
       <formula>LEN(TRIM(A16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="17">
       <formula>LEN(TRIM(A12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="16">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="15">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="14">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="13">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="11">
       <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
       <formula>LEN(TRIM(A33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F34">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F38">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29113,10 +29208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEA74C8-CD75-4B07-88A4-70A5017C055B}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29129,25 +29224,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -29159,7 +29254,7 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -29167,473 +29262,559 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="24" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="17" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="13" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -29644,40 +29825,9 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -29705,8 +29855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6073DDB-1CBA-41B7-AAAE-1C3496CD9549}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29719,25 +29869,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -29749,7 +29899,7 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -29757,461 +29907,538 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="24" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="17" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="47">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -30228,36 +30455,6 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -30287,8 +30484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EBD07A-C5B5-417D-86BA-5797CB0C103E}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30301,25 +30498,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -30331,7 +30528,7 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -30339,477 +30536,556 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="24" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="17" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -30820,38 +31096,6 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/WebPortal Automation Task Update.xlsx
+++ b/WebPortal Automation Task Update.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ganesh M\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\awpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alagammai M S" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -149,6 +149,36 @@
   <si>
     <t>10.00 AM to 4.00 PM</t>
   </si>
+  <si>
+    <t>03.01.2018</t>
+  </si>
+  <si>
+    <t>04.01.2018</t>
+  </si>
+  <si>
+    <t>05.01.2018</t>
+  </si>
+  <si>
+    <t>10.45 AM to 4.00 PM</t>
+  </si>
+  <si>
+    <t>10.45 AM to 5.00 PM</t>
+  </si>
+  <si>
+    <t>10.45 AM to 5.00PM</t>
+  </si>
+  <si>
+    <t>10.45 AM to 4.30 PM</t>
+  </si>
+  <si>
+    <t>Designing Webpage</t>
+  </si>
+  <si>
+    <t>Placement Drive</t>
+  </si>
+  <si>
+    <t>08.01.2018</t>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -426,17 +456,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -483,6 +502,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,15 +540,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
@@ -528,7 +547,15 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -969,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD87E073-8EB3-4519-BF00-566F6565F111}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -986,14 +1013,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1016,12 +1043,12 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1084,13 +1111,13 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1122,9 +1149,9 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -1156,19 +1183,19 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="4"/>
@@ -1187,13 +1214,13 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
@@ -1210,13 +1237,13 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1248,9 +1275,9 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1282,13 +1309,13 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1320,9 +1347,9 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1354,13 +1381,13 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1392,9 +1419,9 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1431,7 +1458,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
@@ -1461,7 +1488,7 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
@@ -1486,19 +1513,19 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="7"/>
@@ -1524,13 +1551,13 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
@@ -1554,13 +1581,13 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1592,9 +1619,9 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -1626,13 +1653,13 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1664,9 +1691,9 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1698,19 +1725,19 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="7"/>
@@ -1736,13 +1763,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="7"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
@@ -1766,19 +1793,19 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="7"/>
@@ -1804,13 +1831,13 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
@@ -1839,7 +1866,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="4"/>
@@ -1869,7 +1896,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="4"/>
@@ -1899,7 +1926,7 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
@@ -1924,19 +1951,19 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="7"/>
@@ -1962,13 +1989,13 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
@@ -1992,19 +2019,19 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="7"/>
@@ -2030,13 +2057,13 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
@@ -2060,13 +2087,13 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -2098,9 +2125,9 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -2137,7 +2164,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="2"/>
@@ -2157,7 +2184,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
@@ -2177,7 +2204,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="2"/>
@@ -2192,7 +2219,7 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2222,12 +2249,24 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="A39" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2240,12 +2279,24 @@
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="A40" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2258,12 +2309,24 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="A41" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2276,12 +2339,24 @@
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="A42" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -29087,7 +29162,7 @@
     <mergeCell ref="A22:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29097,71 +29172,111 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="27">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="25">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="24">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="23">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="22">
       <formula>LEN(TRIM(A16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="21">
       <formula>LEN(TRIM(A12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="20">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="19">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="18">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="17">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="16">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="15">
       <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="14">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F19">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F34">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F38">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -29171,7 +29286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
+  <conditionalFormatting sqref="F40">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -29181,7 +29296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F34">
+  <conditionalFormatting sqref="F41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -29191,7 +29306,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
+  <conditionalFormatting sqref="F42">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -29208,10 +29323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEA74C8-CD75-4B07-88A4-70A5017C055B}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29224,22 +29339,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -29262,13 +29377,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -29280,9 +29395,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -29294,13 +29409,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -29312,9 +29427,9 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -29326,13 +29441,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -29344,9 +29459,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -29358,13 +29473,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -29376,9 +29491,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -29390,13 +29505,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -29408,9 +29523,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -29427,7 +29542,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -29437,18 +29552,18 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -29460,9 +29575,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -29474,13 +29589,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -29492,9 +29607,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -29506,13 +29621,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -29524,9 +29639,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -29538,13 +29653,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -29556,9 +29671,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -29570,13 +29685,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -29588,9 +29703,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -29607,7 +29722,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -29617,7 +29732,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -29627,18 +29742,18 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -29650,9 +29765,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -29664,13 +29779,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -29682,9 +29797,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -29696,13 +29811,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -29714,9 +29829,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -29733,7 +29848,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -29743,7 +29858,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -29753,22 +29868,22 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>35</v>
@@ -29777,8 +29892,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D39" s="27"/>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -29853,10 +30045,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6073DDB-1CBA-41B7-AAAE-1C3496CD9549}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29869,22 +30061,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -29907,13 +30099,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -29925,9 +30117,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -29939,115 +30131,115 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -30056,7 +30248,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -30066,18 +30258,18 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -30089,9 +30281,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -30103,13 +30295,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -30121,9 +30313,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -30135,13 +30327,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -30153,9 +30345,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -30167,13 +30359,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -30185,9 +30377,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -30199,13 +30391,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -30217,9 +30409,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -30236,7 +30428,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -30246,7 +30438,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -30256,18 +30448,18 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -30279,9 +30471,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -30293,13 +30485,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -30311,9 +30503,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -30325,13 +30517,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -30343,9 +30535,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -30362,7 +30554,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -30372,7 +30564,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -30382,22 +30574,22 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>35</v>
@@ -30405,6 +30597,84 @@
       <c r="F38" s="13" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -30482,10 +30752,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EBD07A-C5B5-417D-86BA-5797CB0C103E}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30498,22 +30768,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -30536,13 +30806,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -30554,9 +30824,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -30568,13 +30838,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -30586,9 +30856,9 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -30600,13 +30870,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -30618,9 +30888,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -30632,13 +30902,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -30650,9 +30920,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -30664,13 +30934,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -30682,9 +30952,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -30701,7 +30971,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -30711,18 +30981,18 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -30734,9 +31004,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -30748,13 +31018,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -30766,9 +31036,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -30780,13 +31050,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -30798,9 +31068,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -30812,13 +31082,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -30830,9 +31100,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -30844,13 +31114,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -30862,9 +31132,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -30881,7 +31151,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -30891,7 +31161,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -30901,18 +31171,18 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -30924,9 +31194,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -30938,13 +31208,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -30956,9 +31226,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -30970,13 +31240,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -30988,9 +31258,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -31007,7 +31277,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -31017,7 +31287,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -31027,18 +31297,18 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -31051,8 +31321,98 @@
         <v>7</v>
       </c>
     </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="46">
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A5"/>
@@ -31086,9 +31446,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -31096,13 +31453,19 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="notContainsBlanks" priority="1" id="{C2D3F867-952F-4807-8365-4EEB367BD7B3}">
+          <x14:cfRule type="notContainsBlanks" priority="2" id="{C2D3F867-952F-4807-8365-4EEB367BD7B3}">
             <xm:f>LEN(TRIM('Alagammai M S'!A4))&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -31115,6 +31478,20 @@
           </x14:cfRule>
           <xm:sqref>A4 A6 A10 A8 A12 A16 A18 A20 A22 A24 A29 A31 A33</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="notContainsBlanks" priority="1" id="{8C476840-D727-4DA6-B4E3-35716416B8B6}">
+            <xm:f>LEN(TRIM('Alagammai M S'!A41))&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB7E1CD"/>
+                  <bgColor rgb="FFB7E1CD"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A41</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/WebPortal Automation Task Update.xlsx
+++ b/WebPortal Automation Task Update.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>08.01.2018</t>
+  </si>
+  <si>
+    <t>09.01.2018</t>
+  </si>
+  <si>
+    <t>Practicing with UiPath Tools</t>
   </si>
 </sst>
 </file>
@@ -514,22 +520,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,6 +531,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
@@ -997,7 +1003,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1013,14 +1019,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1043,12 +1049,12 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1111,7 +1117,7 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -1149,9 +1155,9 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -1183,19 +1189,19 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="4"/>
@@ -1214,13 +1220,13 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
@@ -1237,7 +1243,7 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1275,9 +1281,9 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1315,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1347,9 +1353,9 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1381,7 +1387,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -1419,9 +1425,9 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1458,7 +1464,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
@@ -1488,7 +1494,7 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
@@ -1513,7 +1519,7 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -1551,13 +1557,13 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
@@ -1581,7 +1587,7 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -1619,9 +1625,9 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -1653,7 +1659,7 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -1691,9 +1697,9 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1725,7 +1731,7 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -1763,13 +1769,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="7"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
@@ -1793,7 +1799,7 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -1831,13 +1837,13 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
@@ -1896,7 +1902,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="4"/>
@@ -1926,7 +1932,7 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
@@ -1951,7 +1957,7 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -1989,13 +1995,13 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
@@ -2019,7 +2025,7 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -2057,13 +2063,13 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
@@ -2087,7 +2093,7 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -2125,9 +2131,9 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -2184,7 +2190,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
@@ -2204,7 +2210,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="2"/>
@@ -2369,12 +2375,22 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="A43" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="18"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -29111,6 +29127,39 @@
     <row r="1002" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A5"/>
@@ -29127,42 +29176,9 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29172,71 +29188,81 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="28">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="26">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="25">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="24">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="23">
       <formula>LEN(TRIM(A16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="22">
       <formula>LEN(TRIM(A12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="21">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="20">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="19">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="18">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="17">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="16">
       <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="15">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F19">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -29246,7 +29272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
+  <conditionalFormatting sqref="F33:F34">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -29256,7 +29282,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F34">
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -29266,7 +29292,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
+  <conditionalFormatting sqref="F39">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -29276,7 +29302,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="F40">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -29286,7 +29312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F41">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -29296,7 +29322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F42">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -29306,7 +29332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+  <conditionalFormatting sqref="F43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -29323,10 +29349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEA74C8-CD75-4B07-88A4-70A5017C055B}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29339,22 +29365,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -29377,7 +29403,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -29395,9 +29421,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -29409,13 +29435,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -29427,9 +29453,9 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -29441,7 +29467,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -29459,9 +29485,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -29473,7 +29499,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -29491,9 +29517,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -29505,7 +29531,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -29523,9 +29549,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -29542,7 +29568,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -29552,12 +29578,12 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -29575,9 +29601,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -29589,7 +29615,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -29607,9 +29633,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -29621,7 +29647,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -29639,9 +29665,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -29653,7 +29679,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -29671,9 +29697,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -29685,7 +29711,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -29703,9 +29729,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -29732,7 +29758,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -29742,12 +29768,12 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -29765,9 +29791,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -29779,7 +29805,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -29797,9 +29823,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -29811,7 +29837,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -29829,9 +29855,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -29858,7 +29884,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -29868,7 +29894,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -29972,8 +29998,55 @@
         <v>7</v>
       </c>
     </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A5"/>
@@ -29990,33 +30063,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30045,10 +30091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6073DDB-1CBA-41B7-AAAE-1C3496CD9549}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30061,22 +30107,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -30099,7 +30145,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -30117,9 +30163,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -30131,13 +30177,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -30149,17 +30195,17 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -30177,17 +30223,17 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -30205,17 +30251,17 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -30233,13 +30279,13 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -30248,7 +30294,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -30258,12 +30304,12 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -30281,9 +30327,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -30295,7 +30341,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -30313,9 +30359,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -30327,7 +30373,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -30345,9 +30391,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -30359,7 +30405,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -30377,9 +30423,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -30391,7 +30437,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -30409,9 +30455,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -30438,7 +30484,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -30448,12 +30494,12 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -30471,9 +30517,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -30485,7 +30531,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -30503,9 +30549,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -30517,7 +30563,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -30535,9 +30581,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -30564,7 +30610,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -30574,7 +30620,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -30676,8 +30722,56 @@
       </c>
       <c r="F42" s="18"/>
     </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A5"/>
@@ -30694,37 +30788,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -30752,10 +30815,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EBD07A-C5B5-417D-86BA-5797CB0C103E}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30768,22 +30831,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -30806,7 +30869,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -30824,9 +30887,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -30838,13 +30901,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -30856,9 +30919,9 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -30870,7 +30933,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -30888,9 +30951,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -30902,7 +30965,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -30920,9 +30983,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -30934,7 +30997,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -30952,9 +31015,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -30971,7 +31034,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -30981,12 +31044,12 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -31004,9 +31067,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -31018,7 +31081,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -31036,9 +31099,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -31050,7 +31113,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -31068,9 +31131,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -31082,7 +31145,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -31100,9 +31163,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -31114,7 +31177,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -31132,9 +31195,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -31161,7 +31224,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -31171,12 +31234,12 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -31194,9 +31257,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -31208,7 +31271,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -31226,9 +31289,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -31240,7 +31303,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -31258,9 +31321,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -31287,7 +31350,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -31297,7 +31360,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -31360,7 +31423,7 @@
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="19" t="s">
@@ -31378,9 +31441,9 @@
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -31411,8 +31474,58 @@
         <v>10</v>
       </c>
     </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A5"/>
@@ -31429,36 +31542,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/WebPortal Automation Task Update.xlsx
+++ b/WebPortal Automation Task Update.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alagammai M S" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -185,16 +185,53 @@
   <si>
     <t>Practicing with UiPath Tools</t>
   </si>
+  <si>
+    <t>10.01.2018</t>
+  </si>
+  <si>
+    <t>11.01.2018</t>
+  </si>
+  <si>
+    <t>Website Design</t>
+  </si>
+  <si>
+    <t>10.45 AM to 12.15PM</t>
+  </si>
+  <si>
+    <t>12.01.2018 to 16.01.2018 Pongal Leave</t>
+  </si>
+  <si>
+    <t>18.01.2018 Review 1 in college</t>
+  </si>
+  <si>
+    <t>17.01.2018</t>
+  </si>
+  <si>
+    <t>19.01.2018</t>
+  </si>
+  <si>
+    <t>Review Preparation</t>
+  </si>
+  <si>
+    <t>Reading Excel files</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -465,85 +502,94 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,15 +599,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1002,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD87E073-8EB3-4519-BF00-566F6565F111}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1019,14 +1057,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1049,12 +1087,12 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1117,7 +1155,7 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -1155,9 +1193,9 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -1189,19 +1227,19 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="4"/>
@@ -1220,13 +1258,13 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
@@ -1243,7 +1281,7 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1281,9 +1319,9 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1315,7 +1353,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1353,9 +1391,9 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1387,7 +1425,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -1425,9 +1463,9 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1502,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
@@ -1494,7 +1532,7 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
@@ -1519,7 +1557,7 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -1557,13 +1595,13 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
@@ -1587,7 +1625,7 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -1625,9 +1663,9 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -1659,7 +1697,7 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -1697,9 +1735,9 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1731,7 +1769,7 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -1769,13 +1807,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="7"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
@@ -1799,7 +1837,7 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -1837,13 +1875,13 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
@@ -1902,7 +1940,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="4"/>
@@ -1932,7 +1970,7 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
@@ -1957,7 +1995,7 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -1995,13 +2033,13 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
@@ -2025,7 +2063,7 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -2063,13 +2101,13 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
@@ -2093,7 +2131,7 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -2131,9 +2169,9 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -2190,7 +2228,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
@@ -2210,7 +2248,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="2"/>
@@ -2403,12 +2441,24 @@
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="A44" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2421,12 +2471,24 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="A45" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2445,10 +2507,12 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2473,10 +2537,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2500,12 +2564,24 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="A48" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2529,10 +2605,12 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="B49" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2553,14 +2631,23 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -29126,7 +29213,42 @@
     <row r="1001" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="51">
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="D14:D15"/>
@@ -29143,42 +29265,9 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29188,71 +29277,101 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="31">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="29">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="28">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="27">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="26">
       <formula>LEN(TRIM(A16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="25">
       <formula>LEN(TRIM(A12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="24">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="23">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="22">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="21">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="20">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="19">
       <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="18">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F19">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F34">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -29262,7 +29381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
+  <conditionalFormatting sqref="F39">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -29272,7 +29391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F34">
+  <conditionalFormatting sqref="F40">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -29282,7 +29401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
+  <conditionalFormatting sqref="F41">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -29292,7 +29411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="F42">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -29302,7 +29421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F43">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -29312,7 +29431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F44">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -29322,7 +29441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+  <conditionalFormatting sqref="F45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -29332,7 +29451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -29349,10 +29468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEA74C8-CD75-4B07-88A4-70A5017C055B}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29365,22 +29484,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -29403,7 +29522,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -29421,9 +29540,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -29435,13 +29554,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -29453,9 +29572,9 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -29467,7 +29586,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -29485,9 +29604,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -29499,7 +29618,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -29517,9 +29636,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -29531,7 +29650,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -29549,9 +29668,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -29568,7 +29687,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -29578,12 +29697,12 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -29601,9 +29720,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -29615,7 +29734,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -29633,9 +29752,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -29647,7 +29766,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -29665,9 +29784,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -29679,7 +29798,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -29697,9 +29816,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -29711,7 +29830,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -29729,9 +29848,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -29758,7 +29877,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -29768,12 +29887,12 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -29791,9 +29910,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -29805,7 +29924,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -29823,9 +29942,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -29837,7 +29956,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -29855,9 +29974,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -29884,7 +30003,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -29894,7 +30013,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -30018,35 +30137,102 @@
         <v>10</v>
       </c>
     </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
+  <mergeCells count="45">
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="B49:E49"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A5"/>
@@ -30063,14 +30249,81 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
   </mergeCells>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="notContainsBlanks" priority="18" id="{03A42947-A4C1-4CAB-A8C7-0E80CBD1B97F}">
+          <x14:cfRule type="notContainsBlanks" priority="22" id="{03A42947-A4C1-4CAB-A8C7-0E80CBD1B97F}">
             <xm:f>LEN(TRIM('Alagammai M S'!A4))&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -30091,10 +30344,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6073DDB-1CBA-41B7-AAAE-1C3496CD9549}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30107,22 +30360,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -30145,7 +30398,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -30163,9 +30416,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -30177,13 +30430,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -30195,17 +30448,17 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -30223,17 +30476,17 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -30251,17 +30504,17 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -30279,13 +30532,13 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -30294,7 +30547,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -30304,12 +30557,12 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -30327,9 +30580,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -30341,7 +30594,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -30359,9 +30612,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -30373,7 +30626,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -30391,9 +30644,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -30405,7 +30658,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -30423,9 +30676,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -30437,7 +30690,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -30455,9 +30708,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -30484,7 +30737,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -30494,12 +30747,12 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -30517,9 +30770,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -30531,7 +30784,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -30549,9 +30802,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -30563,7 +30816,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -30581,9 +30834,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -30610,7 +30863,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -30620,7 +30873,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -30739,8 +30992,142 @@
         <v>5</v>
       </c>
     </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="49">
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -30757,44 +31144,43 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="notContainsBlanks" priority="1" id="{3363A29C-6BF5-4C9B-9EE6-0A7FC2DE71F2}">
+          <x14:cfRule type="notContainsBlanks" priority="5" id="{3363A29C-6BF5-4C9B-9EE6-0A7FC2DE71F2}">
             <xm:f>LEN(TRIM('Alagammai M S'!A4))&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -30815,10 +31201,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EBD07A-C5B5-417D-86BA-5797CB0C103E}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30831,22 +31217,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -30869,7 +31255,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -30887,9 +31273,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -30901,13 +31287,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -30919,9 +31305,9 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -30933,7 +31319,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -30951,9 +31337,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -30965,7 +31351,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -30983,9 +31369,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -30997,7 +31383,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -31015,9 +31401,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -31034,7 +31420,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -31044,12 +31430,12 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -31067,9 +31453,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -31081,7 +31467,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -31099,9 +31485,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -31113,7 +31499,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -31131,9 +31517,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -31145,7 +31531,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -31163,9 +31549,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -31177,7 +31563,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -31195,9 +31581,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -31224,7 +31610,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -31234,12 +31620,12 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -31257,9 +31643,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -31271,7 +31657,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -31289,9 +31675,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -31303,7 +31689,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -31321,9 +31707,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -31350,7 +31736,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -31360,7 +31746,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -31423,7 +31809,7 @@
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="19" t="s">
@@ -31441,9 +31827,9 @@
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -31494,38 +31880,114 @@
         <v>10</v>
       </c>
     </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
+  <mergeCells count="48">
+    <mergeCell ref="B47:E48"/>
+    <mergeCell ref="B50:E50"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A5"/>
@@ -31542,13 +32004,83 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
   </mergeCells>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="notContainsBlanks" priority="2" id="{C2D3F867-952F-4807-8365-4EEB367BD7B3}">
+          <x14:cfRule type="notContainsBlanks" priority="6" id="{C2D3F867-952F-4807-8365-4EEB367BD7B3}">
             <xm:f>LEN(TRIM('Alagammai M S'!A4))&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -31559,21 +32091,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4 A6 A10 A8 A12 A16 A18 A20 A22 A24 A29 A31 A33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="notContainsBlanks" priority="1" id="{8C476840-D727-4DA6-B4E3-35716416B8B6}">
-            <xm:f>LEN(TRIM('Alagammai M S'!A41))&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB7E1CD"/>
-                  <bgColor rgb="FFB7E1CD"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A41</xm:sqref>
+          <xm:sqref>A4 A6 A10 A8 A12 A16 A18 A20 A22 A24 A29 A31 A33 A41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/WebPortal Automation Task Update.xlsx
+++ b/WebPortal Automation Task Update.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -336,12 +336,24 @@
   <si>
     <t xml:space="preserve">                             Adding Report Form</t>
   </si>
+  <si>
+    <t>31.01.2018</t>
+  </si>
+  <si>
+    <t>Learning Udacity Course</t>
+  </si>
+  <si>
+    <t>10.45 AM to 4.30PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      10.45 AM to 4.30PM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -428,6 +440,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -640,7 +657,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,6 +736,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,9 +783,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
@@ -1085,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -1102,14 +1128,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1132,12 +1158,12 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1200,13 +1226,13 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1238,9 +1264,9 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -1272,19 +1298,19 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="41" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="4"/>
@@ -1303,13 +1329,13 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
@@ -1326,13 +1352,13 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1364,9 +1390,9 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1398,13 +1424,13 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1436,9 +1462,9 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1470,13 +1496,13 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1508,9 +1534,9 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1547,7 +1573,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
@@ -1577,7 +1603,7 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
@@ -1602,19 +1628,19 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="7"/>
@@ -1640,13 +1666,13 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="33"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
@@ -1670,13 +1696,13 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1708,9 +1734,9 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -1742,13 +1768,13 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1780,9 +1806,9 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1814,19 +1840,19 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="7"/>
@@ -1852,13 +1878,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="33"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="7"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
@@ -1882,19 +1908,19 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="7"/>
@@ -1920,13 +1946,13 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
@@ -1955,7 +1981,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="4"/>
@@ -1985,7 +2011,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="4"/>
@@ -2015,7 +2041,7 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
@@ -2040,19 +2066,19 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="7"/>
@@ -2078,13 +2104,13 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
@@ -2108,19 +2134,19 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="7"/>
@@ -2146,13 +2172,13 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
@@ -2176,13 +2202,13 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -2214,9 +2240,9 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -2253,7 +2279,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="2"/>
@@ -2273,7 +2299,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
@@ -2293,7 +2319,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="2"/>
@@ -2552,12 +2578,12 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2582,10 +2608,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2650,12 +2676,12 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -3045,11 +3071,21 @@
       <c r="Y59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>5</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -29550,10 +29586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -29566,22 +29602,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
@@ -29604,13 +29640,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -29622,9 +29658,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="36"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -29636,13 +29672,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -29654,9 +29690,9 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="36"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -29668,13 +29704,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -29686,9 +29722,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="36"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -29700,13 +29736,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -29718,9 +29754,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="36"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -29732,13 +29768,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -29750,9 +29786,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="36"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -29769,7 +29805,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -29779,18 +29815,18 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -29802,9 +29838,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="36"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -29816,13 +29852,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -29834,9 +29870,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="36"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -29848,13 +29884,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -29866,9 +29902,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="36"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -29880,13 +29916,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -29898,9 +29934,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="36"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -29912,13 +29948,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -29930,9 +29966,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="36"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -29949,7 +29985,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -29959,7 +29995,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -29969,18 +30005,18 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -29992,9 +30028,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="36"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -30006,13 +30042,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -30024,9 +30060,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="36"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -30038,13 +30074,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -30056,9 +30092,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="36"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -30075,7 +30111,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -30085,7 +30121,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -30095,7 +30131,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -30248,18 +30284,18 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:6" ht="15.75">
       <c r="A48" s="19" t="s">
@@ -30283,12 +30319,12 @@
     </row>
     <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="2"/>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="15.75">
@@ -30453,8 +30489,28 @@
       <c r="E59" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>7</v>
+      <c r="F59" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75">
+      <c r="A60" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -30506,6 +30562,16 @@
     <mergeCell ref="C31:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="F44">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -30515,7 +30581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F48">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -30525,7 +30591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="F50">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -30535,28 +30601,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+  <conditionalFormatting sqref="F53">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -30592,10 +30638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30608,22 +30654,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
@@ -30646,13 +30692,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -30664,9 +30710,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="36"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -30678,115 +30724,115 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="36"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="36"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="36"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="36"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
@@ -30795,7 +30841,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -30805,18 +30851,18 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -30828,9 +30874,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="36"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -30842,13 +30888,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -30860,9 +30906,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="36"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -30874,13 +30920,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -30892,9 +30938,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="36"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -30906,13 +30952,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -30924,9 +30970,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="36"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -30938,13 +30984,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -30956,9 +31002,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="36"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -30975,7 +31021,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -30985,7 +31031,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -30995,18 +31041,18 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -31018,9 +31064,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="36"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -31032,13 +31078,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -31050,9 +31096,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="36"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -31064,13 +31110,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -31082,9 +31128,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="36"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -31101,7 +31147,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -31111,7 +31157,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -31121,7 +31167,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -31281,18 +31327,18 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:6" ht="15.75">
       <c r="A48" s="19" t="s">
@@ -31315,12 +31361,12 @@
       <c r="A49" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="15.75">
@@ -31418,7 +31464,7 @@
       <c r="E55" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="47" t="s">
+      <c r="F55" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31438,7 +31484,7 @@
       <c r="E56" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31485,6 +31531,26 @@
       </c>
       <c r="F59" s="28" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75">
+      <c r="A60" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -31596,10 +31662,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31612,22 +31678,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
@@ -31650,13 +31716,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -31668,9 +31734,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="36"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -31682,13 +31748,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -31700,9 +31766,9 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="36"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -31714,13 +31780,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -31732,9 +31798,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="36"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -31746,13 +31812,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -31764,9 +31830,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="36"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -31778,13 +31844,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -31796,9 +31862,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="36"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -31815,7 +31881,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -31825,18 +31891,18 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -31848,9 +31914,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="36"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -31862,13 +31928,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -31880,9 +31946,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="36"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -31894,13 +31960,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -31912,9 +31978,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="36"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -31926,13 +31992,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -31944,9 +32010,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="36"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -31958,13 +32024,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -31976,9 +32042,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="36"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -31995,7 +32061,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -32005,7 +32071,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -32015,18 +32081,18 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -32038,9 +32104,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="36"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -32052,13 +32118,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -32070,9 +32136,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="36"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -32084,13 +32150,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -32102,9 +32168,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="36"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -32121,7 +32187,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -32131,7 +32197,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -32141,7 +32207,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -32204,13 +32270,13 @@
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" ht="15.75">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -32222,9 +32288,9 @@
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="15.75">
-      <c r="A42" s="36"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -32316,18 +32382,18 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:6" ht="15.75">
       <c r="A49" s="16" t="s">
@@ -32351,12 +32417,12 @@
     </row>
     <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="15.75">
@@ -32526,6 +32592,26 @@
       </c>
       <c r="F60" s="12" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75">
+      <c r="A61" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -32580,6 +32666,16 @@
     <mergeCell ref="C33:C34"/>
   </mergeCells>
   <conditionalFormatting sqref="F45">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -32589,7 +32685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F49">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -32599,7 +32695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F51">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -32609,7 +32705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F59">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -32619,18 +32715,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="F60">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>

--- a/WebPortal Automation Task Update.xlsx
+++ b/WebPortal Automation Task Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Alagammai M S" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -348,6 +348,33 @@
   <si>
     <t xml:space="preserve">      10.45 AM to 4.30PM</t>
   </si>
+  <si>
+    <t>01.02.2018</t>
+  </si>
+  <si>
+    <t>02.02.2018</t>
+  </si>
+  <si>
+    <t>Navigate to Report Form</t>
+  </si>
+  <si>
+    <t>03.02.2018</t>
+  </si>
+  <si>
+    <t>05.02.2018</t>
+  </si>
+  <si>
+    <t>06.02.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Placement Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Mapping Data from File name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             Absent</t>
+  </si>
 </sst>
 </file>
 
@@ -657,7 +684,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -748,31 +775,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,6 +798,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
@@ -1101,7 +1131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1111,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -1128,14 +1158,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1158,12 +1188,12 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1226,13 +1256,13 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1264,9 +1294,9 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -1298,19 +1328,19 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="50" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="4"/>
@@ -1329,13 +1359,13 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
@@ -1352,13 +1382,13 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1390,9 +1420,9 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1424,13 +1454,13 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1462,9 +1492,9 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1496,13 +1526,13 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1534,9 +1564,9 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1573,7 +1603,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
@@ -1603,7 +1633,7 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
@@ -1628,19 +1658,19 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="7"/>
@@ -1666,13 +1696,13 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
@@ -1696,13 +1726,13 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1734,9 +1764,9 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -1768,13 +1798,13 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1806,9 +1836,9 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1840,19 +1870,19 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="7"/>
@@ -1878,13 +1908,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="7"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
@@ -1908,19 +1938,19 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="7"/>
@@ -1946,13 +1976,13 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
@@ -1981,7 +2011,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="4"/>
@@ -2011,7 +2041,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="4"/>
@@ -2041,7 +2071,7 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
@@ -2066,19 +2096,19 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="39" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="7"/>
@@ -2104,13 +2134,13 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="37"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
@@ -2134,19 +2164,19 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="7"/>
@@ -2172,13 +2202,13 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="37"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
@@ -2202,13 +2232,13 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -2240,9 +2270,9 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="40"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -2279,7 +2309,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="36"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="2"/>
@@ -2299,7 +2329,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
@@ -2319,7 +2349,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="2"/>
@@ -2578,12 +2608,12 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2608,10 +2638,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2676,12 +2706,12 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -3109,11 +3139,21 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3137,12 +3177,24 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="A62" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3165,11 +3217,21 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>5</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -3193,12 +3255,24 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="A64" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3221,12 +3295,24 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="A65" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -29372,6 +29458,41 @@
     <row r="1002" spans="1:26" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B46:E47"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="D35:D37"/>
@@ -29388,44 +29509,9 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -29435,11 +29521,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A6 A8 A10 A16 A12 A18 A20 A22 A24 A29 A31 A33">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="37">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F19">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F21">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F34">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29449,7 +29565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
+  <conditionalFormatting sqref="F39">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29459,7 +29575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F34">
+  <conditionalFormatting sqref="F40">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29469,7 +29585,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
+  <conditionalFormatting sqref="F41">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29479,7 +29595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="F42">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29489,7 +29605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F43">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29499,7 +29615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F44">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29509,7 +29625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+  <conditionalFormatting sqref="F45">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29519,7 +29635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F48">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29529,7 +29645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F56">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29539,7 +29655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F58">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29549,17 +29665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+  <conditionalFormatting sqref="F62">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -29569,8 +29675,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+  <conditionalFormatting sqref="F64">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -29586,10 +29702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -29602,22 +29718,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
@@ -29640,13 +29756,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -29658,9 +29774,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="40"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -29672,13 +29788,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -29690,9 +29806,9 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="40"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -29704,13 +29820,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -29722,9 +29838,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="40"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -29736,13 +29852,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -29754,9 +29870,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="40"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -29768,13 +29884,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -29786,9 +29902,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -29805,7 +29921,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -29815,18 +29931,18 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -29838,9 +29954,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -29852,13 +29968,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -29870,9 +29986,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -29884,13 +30000,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -29902,9 +30018,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -29916,13 +30032,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -29934,9 +30050,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -29948,13 +30064,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -29966,9 +30082,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="40"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -29985,7 +30101,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -29995,7 +30111,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -30005,18 +30121,18 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="39" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -30028,9 +30144,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="40"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -30042,13 +30158,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -30060,9 +30176,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -30074,13 +30190,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -30092,9 +30208,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="40"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -30111,7 +30227,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="36"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -30121,7 +30237,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -30131,7 +30247,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -30284,18 +30400,18 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:6" ht="15.75">
       <c r="A48" s="19" t="s">
@@ -30319,12 +30435,12 @@
     </row>
     <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="2"/>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="15.75">
@@ -30513,8 +30629,131 @@
         <v>10</v>
       </c>
     </row>
+    <row r="61" spans="1:7" ht="15.75">
+      <c r="A61" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75">
+      <c r="A62" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75">
+      <c r="A63" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75">
+      <c r="A64" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75">
+      <c r="A65" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="B46:E47"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="D35:D37"/>
@@ -30531,35 +30770,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="F44">
     <cfRule type="colorScale" priority="7">
@@ -30638,10 +30848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30654,22 +30864,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
@@ -30692,13 +30902,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -30710,9 +30920,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="40"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -30724,115 +30934,115 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="40"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="40"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="40"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
@@ -30841,7 +31051,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -30851,18 +31061,18 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -30874,9 +31084,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -30888,13 +31098,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -30906,9 +31116,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -30920,13 +31130,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -30938,9 +31148,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -30952,13 +31162,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -30970,9 +31180,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -30984,13 +31194,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -31002,9 +31212,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="40"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -31021,7 +31231,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -31031,7 +31241,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -31041,18 +31251,18 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="39" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -31064,9 +31274,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="40"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -31078,13 +31288,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -31096,9 +31306,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -31110,13 +31320,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -31128,9 +31338,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="40"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -31147,7 +31357,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="36"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -31157,7 +31367,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -31167,7 +31377,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -31327,18 +31537,18 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:6" ht="15.75">
       <c r="A48" s="19" t="s">
@@ -31361,12 +31571,12 @@
       <c r="A49" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="15.75">
@@ -31553,8 +31763,135 @@
         <v>7</v>
       </c>
     </row>
+    <row r="61" spans="1:6" ht="15.75">
+      <c r="A61" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75">
+      <c r="A62" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75">
+      <c r="A63" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75">
+      <c r="A64" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75">
+      <c r="A65" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="B46:E47"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="D35:D37"/>
@@ -31571,39 +31908,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="F44">
     <cfRule type="colorScale" priority="4">
@@ -31662,10 +31966,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31678,22 +31982,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
@@ -31716,13 +32020,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -31734,9 +32038,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="40"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -31748,13 +32052,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -31766,9 +32070,9 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="40"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -31780,13 +32084,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -31798,9 +32102,9 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="40"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
@@ -31812,13 +32116,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -31830,9 +32134,9 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="40"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
@@ -31844,13 +32148,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -31862,9 +32166,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
@@ -31881,7 +32185,7 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -31891,18 +32195,18 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -31914,9 +32218,9 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
@@ -31928,13 +32232,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -31946,9 +32250,9 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -31960,13 +32264,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -31978,9 +32282,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
@@ -31992,13 +32296,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -32010,9 +32314,9 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
@@ -32024,13 +32328,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -32042,9 +32346,9 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="40"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -32061,7 +32365,7 @@
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -32071,7 +32375,7 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -32081,18 +32385,18 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="39" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -32104,9 +32408,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="40"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -32118,13 +32422,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -32136,9 +32440,9 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
@@ -32150,13 +32454,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -32168,9 +32472,9 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="40"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -32187,7 +32491,7 @@
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="36"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -32197,7 +32501,7 @@
       <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -32207,7 +32511,7 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -32270,13 +32574,13 @@
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" ht="15.75">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -32288,9 +32592,9 @@
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="15.75">
-      <c r="A42" s="40"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -32382,18 +32686,18 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
     </row>
     <row r="49" spans="1:6" ht="15.75">
       <c r="A49" s="16" t="s">
@@ -32417,12 +32721,12 @@
     </row>
     <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="15.75">
@@ -32614,8 +32918,134 @@
         <v>10</v>
       </c>
     </row>
+    <row r="62" spans="1:6" ht="15.75">
+      <c r="A62" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75">
+      <c r="A63" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75">
+      <c r="A64" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75">
+      <c r="A65" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75">
+      <c r="A66" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="B47:E48"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="D35:D37"/>
@@ -32632,38 +33062,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
   </mergeCells>
   <conditionalFormatting sqref="F45">
     <cfRule type="colorScale" priority="7">
